--- a/report/reliability/comb/Instituto de Educação Física e Esporte - IEFE-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Educação Física e Esporte - IEFE-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1819,6 +1817,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3400,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.85593442764751</v>
+        <v>0.8326187798706775</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8672882334257704</v>
+        <v>0.8641849976293214</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9290758015995504</v>
+        <v>0.9421805843203219</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.35258063914171833</v>
+        <v>0.32861493671745823</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>6.53512688297063</v>
+        <v>6.362956834994638</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03141169440771881</v>
+        <v>0.03372298925977469</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.6193181818181817</v>
+        <v>2.0174825174825175</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8871021194359353</v>
+        <v>0.7605708669048025</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3556659346456086</v>
+        <v>0.2739022271509403</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8394926350245501</v>
+        <v>0.8346078470583529</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8505202652152842</v>
+        <v>0.8612276672250792</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9171802958358364</v>
+        <v>0.93910300675703</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3409175763110481</v>
+        <v>0.3408783480935863</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>5.6898700445262556</v>
+        <v>6.206047343903423</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03502018828601905</v>
+        <v>0.034383483986618175</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.0409317388801777</v>
+        <v>0.05233365794329674</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3150532001975269</v>
+        <v>0.28555366623442907</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8374243473211694</v>
+        <v>0.8130440742430892</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8502010816887401</v>
+        <v>0.848170888664266</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9147601393742181</v>
+        <v>0.9313945542204661</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3403541886555944</v>
+        <v>0.317652696242081</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>5.675615627091164</v>
+        <v>5.586352190317031</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03559222411166297</v>
+        <v>0.037487654989777436</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.0399036748768956</v>
+        <v>0.05183571913627745</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3150532001975269</v>
+        <v>0.2603024771465503</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8404603033384171</v>
+        <v>0.8107087902802608</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8476684480518919</v>
+        <v>0.8465493469374424</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9206036564759007</v>
+        <v>0.9330077875946107</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.33593438533846715</v>
+        <v>0.3149415296027507</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>5.564628189048129</v>
+        <v>5.5167529759050815</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03495142035691082</v>
+        <v>0.03812569152677624</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04289205408523744</v>
+        <v>0.05134643692134926</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3150532001975269</v>
+        <v>0.2562855817848362</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8419053445601834</v>
+        <v>0.8219301663673634</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8533130150650196</v>
+        <v>0.8489071077901741</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9203967143947931</v>
+        <v>0.9303907637646807</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.34590921579828293</v>
+        <v>0.3188956240806851</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>5.817237401418082</v>
+        <v>5.618445019976712</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.0346996072656765</v>
+        <v>0.0366564205701319</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04146765177614776</v>
+        <v>0.042079352788863135</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.3150532001975269</v>
+        <v>0.2739022271509403</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8360773389936687</v>
+        <v>0.804310290036228</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8530721739926039</v>
+        <v>0.8472185511766209</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9033838076876871</v>
+        <v>0.9292555238486528</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3454742982133784</v>
+        <v>0.31605604539814397</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>5.806062725992158</v>
+        <v>5.54529727071797</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03640850602676035</v>
+        <v>0.04020721485350709</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03608663872313839</v>
+        <v>0.04203343960734916</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.32993582080595146</v>
+        <v>0.2739022271509403</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8370293744756812</v>
+        <v>0.8065783297235422</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.85191295371808</v>
+        <v>0.8471158579612633</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9020398851112651</v>
+        <v>0.9286613025261541</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3433927593099667</v>
+        <v>0.31588461915353294</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>5.7527851024609795</v>
+        <v>5.540900754419825</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.036494904927941225</v>
+        <v>0.04007903741820451</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.036554063913163126</v>
+        <v>0.04296731654270239</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.32993582080595146</v>
+        <v>0.2739022271509403</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8559155565590428</v>
+        <v>0.8316014131009782</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8694334580561558</v>
+        <v>0.8557445981829518</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9181646402017519</v>
+        <v>0.9310170966681128</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.37708569974038597</v>
+        <v>0.330810840400866</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>6.658929961016297</v>
+        <v>5.932149419737147</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.031061611209153486</v>
+        <v>0.034734791381270766</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03693789774263463</v>
+        <v>0.05419526159463607</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3940946296345802</v>
+        <v>0.28555366623442907</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8574902362926276</v>
+        <v>0.8278278658099</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.865562787497184</v>
+        <v>0.8605546517075318</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9188043651647277</v>
+        <v>0.9288981386291683</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3692087865473943</v>
+        <v>0.33961681544095723</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>6.43841665103739</v>
+        <v>6.171268258462322</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.030230622440423675</v>
+        <v>0.03346569904756937</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.041069227089586095</v>
+        <v>0.047540893045039424</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3940946296345802</v>
+        <v>0.2775786237390623</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.865030326004549</v>
+        <v>0.8318455442382435</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8777726892153661</v>
+        <v>0.8611065988059737</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.938007585440139</v>
+        <v>0.9401193040160783</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.39498866548677164</v>
+        <v>0.34065086656302856</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>7.181477556697722</v>
+        <v>6.199766089701102</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03003360104481561</v>
+        <v>0.03227933575377957</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.036207591272455146</v>
+        <v>0.05110729437191748</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.400836994790605</v>
+        <v>0.2775786237390623</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8495521508854421</v>
+        <v>0.8405559665717773</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.862187031709387</v>
+        <v>0.8728092286559581</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.928875953231294</v>
+        <v>0.9505977179249413</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.36254836643549826</v>
+        <v>0.36380716931442403</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>6.256211170862024</v>
+        <v>6.8622056414381865</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.032740008541423546</v>
+        <v>0.03210120672650745</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04675186563357099</v>
+        <v>0.049912919311834114</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3940946296345802</v>
+        <v>0.30946135341292447</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.835295832282295</v>
+        <v>0.824169655387494</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8476765884576681</v>
+        <v>0.8597017139778524</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9109311148731116</v>
+        <v>0.9431535731556555</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3359484493635481</v>
+        <v>0.3380285798318504</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>5.564979013236529</v>
+        <v>6.127670824447133</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.035925558775373644</v>
+        <v>0.03498481697316425</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.041660702967314785</v>
+        <v>0.05764056550782029</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.32993582080595146</v>
+        <v>0.2739022271509403</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8377512989717844</v>
+        <v>0.8071929648385383</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8495476366413277</v>
+        <v>0.8474945495682312</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9113927328324611</v>
+        <v>0.9277683339556254</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.3392052785002839</v>
+        <v>0.3165174875225278</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>5.646622078086207</v>
+        <v>5.5571426933846</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.035442914558863954</v>
+        <v>0.038770459431487526</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04119794382542278</v>
+        <v>0.05271096032244293</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.32993582080595146</v>
+        <v>0.2538615601411892</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.8096706454787863</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8485273521430067</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9282686763781364</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.3182535556825234</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>5.601851978874163</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03828029990920751</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.052387555039049974</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.2562855817848362</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>44.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6948687738499401</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7214379078137362</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.704304136403366</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.628561450141607</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.477272727272727</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.2102015277810352</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.7142583132141382</v>
+        <v>0.4069313193682455</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.7254877795331722</v>
+        <v>0.5156870322271238</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.7130494942472718</v>
+        <v>0.4790667421779007</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.6431470299678939</v>
+        <v>0.388919065502643</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.840909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3458494649257824</v>
+        <v>0.21070705494148545</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.7281112953008184</v>
+        <v>0.6748459383814193</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7572592184105308</v>
+        <v>0.7069047834312022</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7255298473810892</v>
+        <v>0.6947778900068818</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6830226963618937</v>
+        <v>0.5992908214921824</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.522727272727273</v>
+        <v>3.477272727272727</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9273276524793457</v>
+        <v>1.2102015277810352</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6645512308753788</v>
+        <v>0.6965934862543217</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6855558656758137</v>
+        <v>0.7292259303779848</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.657159254585902</v>
+        <v>0.7146207934883675</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5979410766065204</v>
+        <v>0.6156138982024076</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.9545454545454546</v>
+        <v>3.840909090909091</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.1402681335942377</v>
+        <v>1.3458494649257824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7464283322262378</v>
+        <v>0.7373226660435857</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6886822395151058</v>
+        <v>0.6966717071874704</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7068765318821254</v>
+        <v>0.7116030880028144</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.650022131961159</v>
+        <v>0.7130393809063651</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.5</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8863031397110384</v>
+        <v>0.4973502728147656</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7611941569627223</v>
+        <v>0.7705937699135533</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.70364523250267</v>
+        <v>0.7200500757910354</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7227271542370552</v>
+        <v>0.7369642877065615</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6566708309453898</v>
+        <v>0.6729446260157435</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.6363636363636365</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.091965906286606</v>
+        <v>1.8863031397110384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.44748711728256935</v>
+        <v>0.776503370065389</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.46144594880709755</v>
+        <v>0.7214614351449712</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.43319075213414726</v>
+        <v>0.7367337562765836</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3465652864130673</v>
+        <v>0.6675423108738529</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.9318181818181817</v>
+        <v>1.6363636363636365</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2463477299083832</v>
+        <v>2.091965906286606</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5239370969100091</v>
+        <v>0.5249943231889619</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5180685738645523</v>
+        <v>0.5985732389755886</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.4871928106736226</v>
+        <v>0.585050252739773</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.3892999807143942</v>
+        <v>0.5031924923171534</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.022727272727273</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7452745018136147</v>
+        <v>0.29080336345115265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.32195905998293506</v>
+        <v>0.4844002804975115</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.3327517646721268</v>
+        <v>0.5260732826733352</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.23444142865908682</v>
+        <v>0.5192218612542973</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.2035839181737189</v>
+        <v>0.3790447890091703</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.25</v>
+        <v>2.9318181818181817</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.3316365172048596</v>
+        <v>1.2463477299083832</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5454427241075316</v>
+        <v>0.5320248332183168</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5659465257323681</v>
+        <v>0.5175598970660448</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5044917493239456</v>
+        <v>0.4840423435627648</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.45588163239516016</v>
+        <v>0.38712522593631865</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.227272727272727</v>
+        <v>3.022727272727273</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.236341872709828</v>
+        <v>1.7452745018136147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7434120600876015</v>
+        <v>0.32941369155602984</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7571581201757974</v>
+        <v>0.3269130998681579</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7551247281462061</v>
+        <v>0.23430813570428738</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6799770567746685</v>
+        <v>0.2019938894262849</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0454545454545454</v>
+        <v>1.25</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3110362571848564</v>
+        <v>1.3316365172048596</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>44.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.7220161163169835</v>
+        <v>0.532163077232206</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.7337466377121263</v>
+        <v>0.5391492920571562</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.7307813376855269</v>
+        <v>0.4791623621647553</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6614216405747378</v>
+        <v>0.4333651787580914</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.227272727272727</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.236341872709828</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>44.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.736537819413815</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.7162510037176374</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.7105179521600578</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.6660256583478206</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.0454545454545454</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3110362571848564</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>44.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.7185034731743789</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.7019578828350114</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.6952046745502691</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.6519856791210247</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.022727272727273</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1908300088327364</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.25</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5227272727272727</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="C45" t="n" s="110">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D45" t="n" s="111">
-        <v>0.045454545454545456</v>
-      </c>
       <c r="E45" t="n" s="112">
-        <v>0.36363636363636365</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4318181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11363636363636363</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.0</v>
-      </c>
-      <c r="C46" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.13636363636363635</v>
       </c>
       <c r="E46" t="n" s="112">
         <v>0.25</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.13636363636363635</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4772727272727273</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.5909090909090909</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.20454545454545456</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F47" t="n" s="113">
         <v>0.13636363636363635</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.06818181818181818</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.5909090909090909</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.022727272727272728</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.18181818181818182</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.13636363636363635</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.09090909090909091</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C49" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G49" t="n" s="114">
         <v>0.06818181818181818</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.4772727272727273</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="G49" t="n" s="114">
-        <v>0.022727272727272728</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.09090909090909091</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.1590909090909091</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="D50" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.13636363636363635</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.3181818181818182</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.45454545454545453</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13636363636363635</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.13636363636363635</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5177,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.18181818181818182</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C52" t="n" s="110">
         <v>0.06818181818181818</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.13636363636363635</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5681818181818182</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.045454545454545456</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C53" t="n" s="110">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E53" t="n" s="112">
         <v>0.18181818181818182</v>
       </c>
-      <c r="C53" t="n" s="110">
+      <c r="F53" t="n" s="113">
         <v>0.11363636363636363</v>
       </c>
-      <c r="D53" t="n" s="111">
-        <v>0.3409090909090909</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.1590909090909091</v>
-      </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1590909090909091</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.11363636363636363</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.36363636363636365</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5681818181818182</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3409090909090909</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8561652574318288</v>
+        <v>0.8724324324324325</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8598243385009072</v>
+        <v>0.9861093410004141</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8463070978971007</v>
+        <v>0.9798880443941161</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6052854665095978</v>
+        <v>0.9594544323106765</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.1339060526314855</v>
+        <v>70.99082491549288</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03429845546402817</v>
+        <v>0.00580739811791208</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6988636363636362</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9743506267064304</v>
+        <v>1.4740731690711384</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5806579404740931</v>
+        <v>0.960623172959558</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7992414822183536</v>
+        <v>0.9772448562474452</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8128038703899266</v>
+        <v>0.9799161676840722</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7473591228751753</v>
+        <v>0.960623172959558</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5913914786242503</v>
+        <v>0.960623172959558</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.341990788393885</v>
+        <v>48.79129402544037</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.05050812197397647</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0028188542459007485</v>
-      </c>
+        <v>0.006428079103381651</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6013393635503012</v>
+        <v>0.960623172959558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7913337007440066</v>
+        <v>0.5994236311239192</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8013394012443738</v>
+        <v>0.9748699847160962</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7337198495807342</v>
+        <v>0.9509720427472915</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5734826056254118</v>
+        <v>0.9509720427472916</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.033710792496436</v>
+        <v>38.79305180289798</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.05413088893920932</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.0035673893051356123</v>
-      </c>
+        <v>0.018600724381409556</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5599765173978851</v>
+        <v>0.9509720427472915</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8392857142857143</v>
+        <v>0.6455981941309255</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.838021360015131</v>
+        <v>0.98310328549052</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7986280315935093</v>
+        <v>0.9667680812251805</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6329670697790837</v>
+        <v>0.9667680812251804</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.173653514398031</v>
+        <v>58.18310328549059</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.041371257649073304</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.01690881645232809</v>
-      </c>
+        <v>0.015322016053200773</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6013393635503012</v>
+        <v>0.9667680812251803</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8295538927286228</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8323248245269872</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7902918728432144</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.623300712009645</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.9639120530453775</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.0409672579910612</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.017632625076257916</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5599765173978851</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>44.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9747071632311184</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9859972703294139</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9759454633440736</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9680127293736684</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4973502728147656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>44.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8643094119047156</v>
+        <v>0.989710354300155</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8514454368599039</v>
+        <v>0.989258694459241</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8063007042065442</v>
+        <v>0.9831206857135735</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7402653915186387</v>
+        <v>0.9692058001970811</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.477272727272727</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.2102015277810352</v>
+        <v>1.8863031397110384</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>44.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8892458266346343</v>
+        <v>0.9897651193658283</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8674540704348209</v>
+        <v>0.9839207102113459</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8312507841905913</v>
+        <v>0.9702019672737006</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7653363630528822</v>
+        <v>0.9639131416167559</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.840909090909091</v>
+        <v>1.6363636363636365</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3458494649257824</v>
+        <v>2.091965906286606</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>44.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.783122807602267</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.814281266646544</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7163254954564101</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6592263457724096</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.522727272727273</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9273276524793457</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>44.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8142045313465962</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8229219655640598</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7335680812967262</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6683365429836302</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.9545454545454546</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.1402681335942377</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.045454545454545456</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.06818181818181818</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
       <c r="E27" t="n" s="227">
-        <v>0.25</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5227272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4318181818181818</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.25</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4772727272727273</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5835,65 +5820,65 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8154097468009802</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8424144646734706</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.7277340973648605</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.7277340973648605</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>5.345760084692565</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.04977557652705448</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.977272727272727</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.3933168784917749</v>
-      </c>
-      <c r="I6" t="n" s="269">
+      <c r="A6" t="n" s="260">
+        <v>0.7156596648572103</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.8633687049415039</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.8304617086298559</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.6780759221569324</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>6.318967441330833</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.03848643043095346</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.287878787878788</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.9976481623132336</v>
+      </c>
+      <c r="I6" t="n" s="268">
         <v>0.7277340973648606</v>
       </c>
     </row>
@@ -5908,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.8154097468009802</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8424144646734706</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.7277340973648605</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.7277340973648605</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>5.345760084692565</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.04977557652705448</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.7277340973648606</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7277340973648606</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5295969164674482</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.7277340973648606</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7277340973648606</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.7277340973648606</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.5295969164674482</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.7277340973648606</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5295969164674482</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.7277340973648606</v>
+      <c r="B12" t="n" s="287">
+        <v>0.3045656218691857</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.713017271371523</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.5540224087788477</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.5540224087788479</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>2.484530253019454</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.05753610338620166</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.5540224087788478</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.49963689179375437</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.8587544656072068</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.7524712603270889</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.7524712603270887</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>6.079869847205758</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.04663576989884862</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.7524712603270888</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>44.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9030406266461073</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9294444839162963</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7928842960458697</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7277340973648607</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.733580393367462</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8675409861384481</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.7729795883074219</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6835351168166783</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.29080336345115265</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>44.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.913904243623271</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9328791275945664</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.9021859253497008</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.7747929579771101</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.9318181818181817</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.2463477299083832</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>44.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.9400093567449169</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.858236602155969</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.7476596263934001</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.7228589330694875</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>3.022727272727273</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.7452745018136147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>44.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9517878822053228</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9294444839162963</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7928842960458697</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.7277340973648607</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>3.022727272727273</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.7452745018136147</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.09090909090909091</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.06818181818181818</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.022727272727272728</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.4772727272727273</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.3181818181818182</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.022727272727272728</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.09090909090909091</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.1590909090909091</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.13636363636363635</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.18181818181818182</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.11363636363636363</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.3181818181818182</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6208,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.9243316719528774</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.9266273341762163</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8632857568299037</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.8632857568299037</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>12.629053664230524</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.022410451318665592</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.034090909090909</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.207523543382244</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8632857568299037</v>
+      <c r="A6" t="n" s="375">
+        <v>0.737127590673575</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8644286801814902</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.819347688875958</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.6800406604473057</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>6.376191375422964</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.028886862954062103</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.757575757575758</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8517003402485619</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.6342544464898925</v>
       </c>
     </row>
     <row r="7">
@@ -6281,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.8632857568299037</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.8632857568299037</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.7452622979453797</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.8632857568299037</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8632857568299037</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.8632857568299037</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.8710382513661201</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8738087732188875</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.775897336473144</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.7758973364731439</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>6.924481166464685</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.03834153729044373</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.775897336473144</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.7452622979453797</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.8632857568299037</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7452622979453797</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.8632857568299037</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.32290422737043234</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.772983701181077</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.6299701983788808</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.6299701983788808</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>3.4049700625136117</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.04938108432404239</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.6299701983788808</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.3530429766368617</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.7762003620087017</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.6342544464898924</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.6342544464898925</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>3.4682824734456528</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.0521824899852075</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.6342544464898925</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>44.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.968537158316652</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9652164930288707</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8968132622723873</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8632857568299039</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.0454545454545454</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3110362571848564</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.7146988689159277</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8509330698086632</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.711732451951383</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.6705714425041712</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.21070705494148545</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>44.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9617323608624567</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9652164930288707</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8968132622723873</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8632857568299038</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.022727272727273</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.1908300088327364</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9346340555714073</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.9057749018098961</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8499879080664744</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.7917921707272566</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.477272727272727</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.2102015277810352</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>44.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.9461781559707502</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9041648105121147</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8468438445452999</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.7917162567235361</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.840909090909091</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.3458494649257824</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.25</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="G26" t="n" s="458">
         <v>0.11363636363636363</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3409090909090909</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H26" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G24" t="n" s="459">
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="F27" t="n" s="457">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G27" t="n" s="458">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6558,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6607,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9772448562474452</v>
+        <v>0.3771918430965058</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9799161676840722</v>
+        <v>0.37803548154537725</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.960623172959558</v>
+        <v>0.23307259637563604</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.960623172959558</v>
+        <v>0.23307259637563615</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>48.79129402544037</v>
+        <v>0.6078087581019432</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.006428079103381651</v>
+        <v>0.18723771699761485</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>1.5681818181818181</v>
+        <v>1.7386363636363635</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.9695085831741423</v>
+        <v>1.0086177299445822</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.960623172959558</v>
+        <v>0.23307259637563613</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9606231729595579</v>
+        <v>0.23307259637563613</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9606231729595579</v>
+        <v>0.23307259637563613</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.922796880426889</v>
+        <v>0.05432283518128023</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9606231729595579</v>
+        <v>0.23307259637563613</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9606231729595579</v>
+        <v>0.23307259637563613</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9606231729595579</v>
+        <v>0.23307259637563613</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.922796880426889</v>
+        <v>0.05432283518128023</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9606231729595579</v>
+        <v>0.23307259637563613</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.922796880426889</v>
+        <v>0.05432283518128023</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9606231729595579</v>
+        <v>0.23307259637563613</v>
       </c>
     </row>
     <row r="13">
@@ -6734,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6763,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>44.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9890523198564866</v>
+        <v>0.8029771237385712</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9901068560916944</v>
+        <v>0.7851982540656964</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.970417449705653</v>
+        <v>0.37907481554233885</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9606231729595581</v>
+        <v>0.233072596375636</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.8863031397110384</v>
+        <v>1.3316365172048596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>44.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9911082507768416</v>
+        <v>0.7667473053881161</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9901068560916942</v>
+        <v>0.7851982540656964</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.970417449705653</v>
+        <v>0.3790748155423386</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9606231729595581</v>
+        <v>0.23307259637563613</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>1.6363636363636365</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.091965906286606</v>
+        <v>1.236341872709828</v>
       </c>
     </row>
     <row r="19">
@@ -6825,16 +6993,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="567">
         <v>40</v>
@@ -6846,27 +7014,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.5909090909090909</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.20454545454545456</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.13636363636363635</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.06818181818181818</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +7042,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.5909090909090909</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.022727272727272728</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.06818181818181818</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.18181818181818182</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.13636363636363635</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6922,7 +7090,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="575">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6971,31 +7139,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.3771918430965058</v>
+        <v>0.9243316719528774</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.37803548154537725</v>
+        <v>0.9266273341762163</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.23307259637563604</v>
+        <v>0.8632857568299037</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.23307259637563615</v>
+        <v>0.8632857568299037</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>0.6078087581019432</v>
+        <v>12.629053664230524</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.18723771699761485</v>
+        <v>0.022410451318665592</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>1.7386363636363635</v>
+        <v>2.034090909090909</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.0086177299445822</v>
+        <v>1.207523543382244</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7210,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.05432283518128023</v>
+        <v>0.7452622979453797</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.05432283518128023</v>
+        <v>0.7452622979453797</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.05432283518128023</v>
+        <v>0.7452622979453797</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299037</v>
       </c>
     </row>
     <row r="13">
@@ -7098,25 +7266,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="642">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="656">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="656">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="656">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="656">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="656">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="656">
         <v>9</v>
@@ -7127,54 +7295,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>44.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.8029771237385712</v>
+        <v>0.968537158316652</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.7851982540656964</v>
+        <v>0.9652164930288707</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.37907481554233885</v>
+        <v>0.8968132622723873</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.233072596375636</v>
+        <v>0.8632857568299039</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>1.25</v>
+        <v>2.0454545454545454</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.3316365172048596</v>
+        <v>1.3110362571848564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>44.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.7667473053881161</v>
+        <v>0.9617323608624567</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.7851982540656964</v>
+        <v>0.9652164930288707</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.3790748155423386</v>
+        <v>0.8968132622723873</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.23307259637563613</v>
+        <v>0.8632857568299038</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>2.227272727272727</v>
+        <v>2.022727272727273</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>1.236341872709828</v>
+        <v>1.1908300088327364</v>
       </c>
     </row>
     <row r="19">
@@ -7189,48 +7357,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="667">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="681">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="681">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="681">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="681">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="681">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="681">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="682">
-        <v>0.45454545454545453</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C23" t="n" s="683">
-        <v>0.13636363636363635</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="D23" t="n" s="684">
-        <v>0.13636363636363635</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="E23" t="n" s="685">
-        <v>0.25</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F23" t="n" s="686">
-        <v>0.022727272727272728</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7406,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="682">
-        <v>0.18181818181818182</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="C24" t="n" s="683">
-        <v>0.06818181818181818</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.13636363636363635</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.5681818181818182</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F24" t="n" s="686">
-        <v>0.045454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7286,7 +7454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="689">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7335,31 +7503,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.8658545762700773</v>
+        <v>0.8395260863721029</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8747407887508544</v>
+        <v>0.8642137725092719</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9230286391598017</v>
+        <v>0.9286655199511068</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.41119130355198596</v>
+        <v>0.3889217803837228</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>6.983444810385712</v>
+        <v>6.364517141978058</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.02844702006514445</v>
+        <v>0.03078291419918051</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>2.547727272727273</v>
+        <v>1.9363636363636363</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.9473312910765981</v>
+        <v>0.8567355319293056</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.43296350428916414</v>
+        <v>0.3864180366951821</v>
       </c>
     </row>
     <row r="7">
@@ -7406,292 +7574,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.8490608039348712</v>
+        <v>0.8263441712926249</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.8572564282742918</v>
+        <v>0.8403416588469964</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.907086313029777</v>
+        <v>0.9093106345978531</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.400222693839553</v>
+        <v>0.3690132772164725</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>6.005569413112142</v>
+        <v>5.263374608418865</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.03176335534551862</v>
+        <v>0.03463157673580318</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.038133073029797834</v>
+        <v>0.047083942677371</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.4167475768132892</v>
+        <v>0.3507909969776343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.8466761115954665</v>
+        <v>0.799753516637627</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8567951269559614</v>
+        <v>0.8388192829574505</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.9051715832193602</v>
+        <v>0.9075037756939353</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.3993193324712997</v>
+        <v>0.3663853087421393</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>5.9830025944192435</v>
+        <v>5.204216101954763</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.03246835006369837</v>
+        <v>0.039940131354187176</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.036628002438388554</v>
+        <v>0.045934373687444734</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.42731916607386167</v>
+        <v>0.3507909969776343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.8505402977762051</v>
+        <v>0.8025087123581449</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.8544345678447407</v>
+        <v>0.8383261478521784</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.9123031042746034</v>
+        <v>0.9071816118291918</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.3947448871417719</v>
+        <v>0.36554002988555634</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>5.869762863297141</v>
+        <v>5.185292097114627</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.03179089275146961</v>
+        <v>0.040148735891651396</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.0414481332376401</v>
+        <v>0.048173504468316426</v>
       </c>
       <c r="I13" t="n" s="752">
-        <v>0.406328660279312</v>
+        <v>0.3507909969776343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.8507646579747875</v>
+        <v>0.8450645227666891</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.8589407424153865</v>
+        <v>0.8641696001457201</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.912712468556739</v>
+        <v>0.9268475368307606</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.4035476674506533</v>
+        <v>0.41414344370351003</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>6.0892192198031125</v>
+        <v>6.362122183788083</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.031691843842625224</v>
+        <v>0.03150774018693907</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.04040800385854891</v>
+        <v>0.05853714824804655</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.41701959368926933</v>
+        <v>0.401510265609182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.8465465747778107</v>
+        <v>0.8177894091367</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.8560012572148883</v>
+        <v>0.8429837222824844</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.89952170147545</v>
+        <v>0.9143235853461203</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.39777195998769993</v>
+        <v>0.37364142998461414</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>5.944505074549802</v>
+        <v>5.368766439611298</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.032252685920630464</v>
+        <v>0.03408088457807533</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.0386257766100571</v>
+        <v>0.06165542420645211</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.4167475768132892</v>
+        <v>0.29441146259902956</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.8489542197901387</v>
+        <v>0.8152456354039789</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.858258297815375</v>
+        <v>0.8421328577746847</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.9005091744883349</v>
+        <v>0.9131460766996587</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.4021954060736501</v>
+        <v>0.37214151630940023</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>6.055086714687925</v>
+        <v>5.33444037754705</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.03193673255473857</v>
+        <v>0.03489915836235334</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.03738173364275012</v>
+        <v>0.06045084812425065</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.42731916607386167</v>
+        <v>0.29441146259902956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.8419062584399322</v>
+        <v>0.8532877750669161</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8577178169516727</v>
+        <v>0.8790440764889356</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.8877045566666315</v>
+        <v>0.9410731291606025</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.4011293453839143</v>
+        <v>0.446748783247637</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>6.028286877355136</v>
+        <v>7.267474390442106</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.03452927199410727</v>
+        <v>0.027394049786619117</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.032900542284525235</v>
+        <v>0.05250422310671726</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.40644800442869683</v>
+        <v>0.4440475120083156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.84305234878591</v>
+        <v>0.8403490759753593</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8558785859699448</v>
+        <v>0.867696614788589</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.8865316943987093</v>
+        <v>0.9352224137585521</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.39753366944740853</v>
+        <v>0.4215338121550819</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>5.938594148066433</v>
+        <v>6.5583855878069475</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.03483724443797091</v>
+        <v>0.029874321797179203</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.03445485006007732</v>
+        <v>0.06445753824850677</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.4167475768132892</v>
+        <v>0.4440475120083156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.8797623610578765</v>
+        <v>0.8135395994948584</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8899691093826948</v>
+        <v>0.8456756652680089</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.93444749233821</v>
+        <v>0.905114036725845</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.4733256057561219</v>
+        <v>0.3784470059149275</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>8.088356864056172</v>
+        <v>5.47985945791802</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.025890305619176046</v>
+        <v>0.03495207742487889</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.0251332950502154</v>
+        <v>0.061650940340669966</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.47578342544897456</v>
+        <v>0.3507909969776343</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="740">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="745">
-        <v>0.8668966203442673</v>
+        <v>0.8161429562559829</v>
       </c>
       <c r="C20" t="n" s="746">
-        <v>0.8770376850807687</v>
+        <v>0.8474268432197167</v>
       </c>
       <c r="D20" t="n" s="747">
-        <v>0.9270106810123981</v>
+        <v>0.9065642070457358</v>
       </c>
       <c r="E20" t="n" s="748">
-        <v>0.44212246796778665</v>
+        <v>0.38162319667788913</v>
       </c>
       <c r="F20" t="n" s="749">
-        <v>7.132572981054049</v>
+        <v>5.554232874922256</v>
       </c>
       <c r="G20" t="n" s="750">
-        <v>0.028211529706559237</v>
+        <v>0.0347023134115488</v>
       </c>
       <c r="H20" t="n" s="751">
-        <v>0.039950322102387456</v>
+        <v>0.06059694658066928</v>
       </c>
       <c r="I20" t="n" s="752">
-        <v>0.47578342544897456</v>
+        <v>0.3507909969776343</v>
       </c>
     </row>
     <row r="21">
@@ -7706,25 +7874,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="756">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="770">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="770">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="770">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="770">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="770">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="770">
         <v>9</v>
@@ -7735,262 +7903,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.7160093740413841</v>
+        <v>0.8211598710185765</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.7432113757392016</v>
+        <v>0.7776791826001505</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.723806365963148</v>
+        <v>0.7985014367326622</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.6443889035520601</v>
+        <v>0.8008217446028236</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.477272727272727</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>1.2102015277810352</v>
+        <v>0.4973502728147656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.7375319840451846</v>
+        <v>0.8418391983752107</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.7479546883004523</v>
+        <v>0.7917818775122671</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.7316921309245381</v>
+        <v>0.815240060680353</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.6613723162851142</v>
+        <v>0.7551168859176575</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>3.840909090909091</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>1.3458494649257824</v>
+        <v>1.8863031397110384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.7359981973038008</v>
+        <v>0.8496711897258743</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.7719738956241587</v>
+        <v>0.7963179706756661</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.7347554757809056</v>
+        <v>0.8172496972412254</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.6859053417760295</v>
+        <v>0.7541133789952524</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.522727272727273</v>
+        <v>1.6363636363636365</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>0.9273276524793457</v>
+        <v>2.091965906286606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.6995927344763465</v>
+        <v>0.4216144664526525</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.7257528152454611</v>
+        <v>0.5354932600840123</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.6906575144321995</v>
+        <v>0.4816566712592876</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.6297154699748572</v>
+        <v>0.4010784050376232</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>3.9545454545454546</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>1.1402681335942377</v>
+        <v>0.21070705494148545</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.7397109173444675</v>
+        <v>0.7006280790252842</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.756079533568724</v>
+        <v>0.7528427254153548</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.7523495132834325</v>
+        <v>0.7346067052557671</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.6663194597772663</v>
+        <v>0.6169637493097299</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>2.0454545454545454</v>
+        <v>3.477272727272727</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.3110362571848564</v>
+        <v>1.2102015277810352</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.7184738986548312</v>
+        <v>0.7211399250948949</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.7328531834934806</v>
+        <v>0.7608918421238116</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.727875436062986</v>
+        <v>0.7438602094409588</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.6486321647629127</v>
+        <v>0.6313731413208197</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>2.022727272727273</v>
+        <v>3.840909090909091</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.1908300088327364</v>
+        <v>1.3458494649257824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.8036281407945871</v>
+        <v>0.3608048240396194</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.7384507873299792</v>
+        <v>0.36052040154792914</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.7598694361209589</v>
+        <v>0.24684523038081377</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.7126131631164818</v>
+        <v>0.21505381807618384</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>1.8863031397110384</v>
+        <v>1.3316365172048596</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.8210080838490958</v>
+        <v>0.47504030489909604</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.7573307344200254</v>
+        <v>0.49583368555768786</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.779633732479553</v>
+        <v>0.4039834069421375</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.7245503006596083</v>
+        <v>0.3518184447555086</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>1.6363636363636365</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>2.091965906286606</v>
+        <v>1.236341872709828</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="766">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C33" t="n" s="772">
-        <v>0.3479612849066633</v>
+        <v>0.7355834219155388</v>
       </c>
       <c r="D33" t="n" s="773">
-        <v>0.359367243652486</v>
+        <v>0.7270541469433789</v>
       </c>
       <c r="E33" t="n" s="774">
-        <v>0.24825601664145497</v>
+        <v>0.7204968868947949</v>
       </c>
       <c r="F33" t="n" s="775">
-        <v>0.21599628018336547</v>
+        <v>0.652015528525523</v>
       </c>
       <c r="G33" t="n" s="776">
-        <v>1.25</v>
+        <v>2.0454545454545454</v>
       </c>
       <c r="H33" t="n" s="777">
-        <v>1.3316365172048596</v>
+        <v>1.3110362571848564</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="766">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="771">
         <v>44.0</v>
       </c>
       <c r="C34" t="n" s="772">
-        <v>0.49486489716634124</v>
+        <v>0.7172059918863358</v>
       </c>
       <c r="D34" t="n" s="773">
-        <v>0.5232066999577977</v>
+        <v>0.7100094792655843</v>
       </c>
       <c r="E34" t="n" s="774">
-        <v>0.4381376887831577</v>
+        <v>0.7022868715920126</v>
       </c>
       <c r="F34" t="n" s="775">
-        <v>0.3866818059512652</v>
+        <v>0.6385484168260822</v>
       </c>
       <c r="G34" t="n" s="776">
-        <v>2.227272727272727</v>
+        <v>2.022727272727273</v>
       </c>
       <c r="H34" t="n" s="777">
-        <v>1.236341872709828</v>
+        <v>1.1908300088327364</v>
       </c>
     </row>
     <row r="35">
@@ -8005,54 +8173,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="781">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="795">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="795">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="795">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="795">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="795">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="795">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="795">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="796">
-        <v>0.045454545454545456</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C39" t="n" s="797">
-        <v>0.06818181818181818</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="D39" t="n" s="798">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="799">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="800">
-        <v>0.5227272727272727</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.11363636363636363</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,25 +8228,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="796">
-        <v>0.045454545454545456</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C40" t="n" s="797">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="D40" t="n" s="798">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="799">
-        <v>0.3181818181818182</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F40" t="n" s="800">
         <v>0.13636363636363635</v>
       </c>
       <c r="G40" t="n" s="801">
-        <v>0.45454545454545453</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8254,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="796">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="D41" t="n" s="798">
         <v>0.0</v>
       </c>
-      <c r="C41" t="n" s="797">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D41" t="n" s="798">
-        <v>0.045454545454545456</v>
-      </c>
       <c r="E41" t="n" s="799">
-        <v>0.36363636363636365</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.4318181818181818</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.11363636363636363</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8280,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="796">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C42" t="n" s="797">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="D42" t="n" s="798">
         <v>0.0</v>
       </c>
-      <c r="C42" t="n" s="797">
+      <c r="E42" t="n" s="799">
         <v>0.0</v>
       </c>
-      <c r="D42" t="n" s="798">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="E42" t="n" s="799">
-        <v>0.25</v>
-      </c>
       <c r="F42" t="n" s="800">
-        <v>0.13636363636363635</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.4772727272727273</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,25 +8306,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="796">
-        <v>0.18181818181818182</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C43" t="n" s="797">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.25</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="G43" t="n" s="801">
         <v>0.11363636363636363</v>
-      </c>
-      <c r="D43" t="n" s="798">
-        <v>0.3409090909090909</v>
-      </c>
-      <c r="E43" t="n" s="799">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F43" t="n" s="800">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
       </c>
       <c r="H43" t="n" s="802">
         <v>0.0</v>
@@ -8164,25 +8332,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.1590909090909091</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.11363636363636363</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.36363636363636365</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.2727272727272727</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.09090909090909091</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G44" t="n" s="801">
-        <v>0.0</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="H44" t="n" s="802">
         <v>0.0</v>
@@ -8190,25 +8358,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.5909090909090909</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C45" t="n" s="797">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.25</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.06818181818181818</v>
       </c>
       <c r="H45" t="n" s="802">
         <v>0.0</v>
@@ -8216,25 +8384,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="791">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="796">
-        <v>0.5909090909090909</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C46" t="n" s="797">
-        <v>0.022727272727272728</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D46" t="n" s="798">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E46" t="n" s="799">
+        <v>0.5681818181818182</v>
+      </c>
+      <c r="F46" t="n" s="800">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="G46" t="n" s="801">
         <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.13636363636363635</v>
       </c>
       <c r="H46" t="n" s="802">
         <v>0.0</v>
@@ -8242,22 +8410,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="791">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="796">
-        <v>0.45454545454545453</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C47" t="n" s="797">
-        <v>0.13636363636363635</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="D47" t="n" s="798">
-        <v>0.13636363636363635</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="E47" t="n" s="799">
-        <v>0.25</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F47" t="n" s="800">
-        <v>0.022727272727272728</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="G47" t="n" s="801">
         <v>0.0</v>
@@ -8268,22 +8436,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="791">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="796">
-        <v>0.18181818181818182</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="C48" t="n" s="797">
-        <v>0.06818181818181818</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="D48" t="n" s="798">
-        <v>0.13636363636363635</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E48" t="n" s="799">
-        <v>0.5681818181818182</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F48" t="n" s="800">
-        <v>0.045454545454545456</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G48" t="n" s="801">
         <v>0.0</v>
